--- a/Output/Ouptut_menu.xlsx
+++ b/Output/Ouptut_menu.xlsx
@@ -5,22 +5,34 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophi\Antarctic-Food-Optimisation\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophi\Antarctic-Food-Optimisation\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8808D9-DEEE-42E2-A1A5-92887E3D1406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CD948C-5E87-42DB-AEC5-179FB91C52D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7094" uniqueCount="1588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7327" uniqueCount="1619">
   <si>
     <t>date</t>
   </si>
@@ -4784,13 +4796,106 @@
   </si>
   <si>
     <t>2022-10-09</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Gluten</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Egg</t>
+  </si>
+  <si>
+    <t>Nuts</t>
+  </si>
+  <si>
+    <t>Seeds</t>
+  </si>
+  <si>
+    <t>Added sugar</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>unsuitable</t>
+  </si>
+  <si>
+    <t>suitable</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>A - vegan</t>
+  </si>
+  <si>
+    <t>B - coeliac</t>
+  </si>
+  <si>
+    <t>C - sensitive to all</t>
+  </si>
+  <si>
+    <t>breakfast</t>
+  </si>
+  <si>
+    <t>lunch</t>
+  </si>
+  <si>
+    <t>lunch side</t>
+  </si>
+  <si>
+    <t>dessert</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>tea side</t>
+  </si>
+  <si>
+    <t>fullEnglish</t>
+  </si>
+  <si>
+    <t>veganPorridge</t>
+  </si>
+  <si>
+    <t>yoghurt</t>
+  </si>
+  <si>
+    <t>mushroomSoup</t>
+  </si>
+  <si>
+    <t>pepperoniPizza</t>
+  </si>
+  <si>
+    <t>vegChowMein</t>
+  </si>
+  <si>
+    <t>bakedPotato</t>
+  </si>
+  <si>
+    <t>roastPotatoes</t>
+  </si>
+  <si>
+    <t>berryCrumble</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4803,13 +4908,51 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -4839,7 +4982,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4855,6 +4998,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5158,19 +5314,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO371"/>
+  <dimension ref="A1:AO395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA178" workbookViewId="0">
-      <selection activeCell="AJ204" sqref="AJ204"/>
+    <sheetView tabSelected="1" topLeftCell="A371" workbookViewId="0">
+      <selection activeCell="N393" sqref="N393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+    <col min="3" max="4" width="5" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="12" width="15.44140625" customWidth="1"/>
@@ -51574,7 +51731,830 @@
         <v>1665.25</v>
       </c>
     </row>
+    <row r="372" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B372" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E372" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F372" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G372" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H372" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I372" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J372" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K372" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L372" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M372" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N372" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O372" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P372" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q372" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R372" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S372" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T372" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U372" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V372" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W372" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X372" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y372" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z372" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA372" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB372" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC372" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD372" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE372" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF372" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG372" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH372" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI372" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ372" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK372" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL372" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM372" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN372" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO372" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="373" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A373" s="6" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D373">
+        <f xml:space="preserve"> AVERAGE(D2:D371)</f>
+        <v>71.8972972972973</v>
+      </c>
+      <c r="U373" s="6" t="s">
+        <v>1588</v>
+      </c>
+      <c r="V373">
+        <f>AVERAGE(V2:V371)</f>
+        <v>226105.40540540541</v>
+      </c>
+      <c r="W373">
+        <f t="shared" ref="W373:AO373" si="0">AVERAGE(W2:W371)</f>
+        <v>3260.8610337194923</v>
+      </c>
+      <c r="X373">
+        <f t="shared" si="0"/>
+        <v>246324.42432432433</v>
+      </c>
+      <c r="Y373">
+        <f t="shared" si="0"/>
+        <v>20896.751396648044</v>
+      </c>
+      <c r="Z373">
+        <f t="shared" si="0"/>
+        <v>25436.858108108107</v>
+      </c>
+      <c r="AA373">
+        <f t="shared" si="0"/>
+        <v>366.84686629344344</v>
+      </c>
+      <c r="AB373">
+        <f t="shared" si="0"/>
+        <v>27846.524324324324</v>
+      </c>
+      <c r="AC373">
+        <f t="shared" si="0"/>
+        <v>2456.124655647383</v>
+      </c>
+      <c r="AD373">
+        <f t="shared" si="0"/>
+        <v>4974.3189189189188</v>
+      </c>
+      <c r="AE373">
+        <f t="shared" si="0"/>
+        <v>71.738942741829575</v>
+      </c>
+      <c r="AF373">
+        <f t="shared" si="0"/>
+        <v>9630.0135135135133</v>
+      </c>
+      <c r="AG373">
+        <f t="shared" si="0"/>
+        <v>4655.6945945945945</v>
+      </c>
+      <c r="AH373">
+        <f t="shared" si="0"/>
+        <v>2374.1067567567566</v>
+      </c>
+      <c r="AI373">
+        <f t="shared" si="0"/>
+        <v>34.2390408540547</v>
+      </c>
+      <c r="AJ373">
+        <f t="shared" si="0"/>
+        <v>3900.6540540540541</v>
+      </c>
+      <c r="AK373">
+        <f t="shared" si="0"/>
+        <v>1547.4561643835616</v>
+      </c>
+      <c r="AL373">
+        <f t="shared" si="0"/>
+        <v>5087.3716216216217</v>
+      </c>
+      <c r="AM373">
+        <f t="shared" si="0"/>
+        <v>73.369373258688896</v>
+      </c>
+      <c r="AN373">
+        <f t="shared" si="0"/>
+        <v>8935.024324324324</v>
+      </c>
+      <c r="AO373">
+        <f t="shared" si="0"/>
+        <v>3847.6527027027028</v>
+      </c>
+    </row>
+    <row r="379" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="K379" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="380" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="C380" s="12" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D380" s="12" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E380" s="12" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F380" s="12" t="s">
+        <v>1589</v>
+      </c>
+      <c r="G380" s="12" t="s">
+        <v>1593</v>
+      </c>
+      <c r="H380" s="12" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I380" s="12" t="s">
+        <v>1595</v>
+      </c>
+      <c r="J380" s="13" t="s">
+        <v>1601</v>
+      </c>
+      <c r="K380" s="13" t="s">
+        <v>1602</v>
+      </c>
+      <c r="L380" s="13" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="381" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A381" s="11" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B381" s="14" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C381" s="8" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D381" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E381" s="8" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F381" t="s">
+        <v>1597</v>
+      </c>
+      <c r="G381" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H381" t="s">
+        <v>1597</v>
+      </c>
+      <c r="I381" t="s">
+        <v>1597</v>
+      </c>
+      <c r="J381" s="8" t="s">
+        <v>1598</v>
+      </c>
+      <c r="K381" t="s">
+        <v>1599</v>
+      </c>
+      <c r="L381" s="8" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="382" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A382" s="11" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B382" s="14" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C382" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D382" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E382" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F382" t="s">
+        <v>1597</v>
+      </c>
+      <c r="G382" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H382" t="s">
+        <v>1597</v>
+      </c>
+      <c r="I382" t="s">
+        <v>1597</v>
+      </c>
+      <c r="J382" t="s">
+        <v>1599</v>
+      </c>
+      <c r="K382" t="s">
+        <v>1599</v>
+      </c>
+      <c r="L382" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="383" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A383" s="11" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B383" s="14" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C383" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D383" s="8" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E383" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F383" t="s">
+        <v>1597</v>
+      </c>
+      <c r="G383" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H383" t="s">
+        <v>1597</v>
+      </c>
+      <c r="I383" t="s">
+        <v>1597</v>
+      </c>
+      <c r="J383" s="8" t="s">
+        <v>1598</v>
+      </c>
+      <c r="K383" t="s">
+        <v>1599</v>
+      </c>
+      <c r="L383" s="8" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="384" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A384" s="11" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B384" s="14" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D384" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E384" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F384" t="s">
+        <v>1597</v>
+      </c>
+      <c r="G384" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H384" t="s">
+        <v>1597</v>
+      </c>
+      <c r="I384" t="s">
+        <v>1597</v>
+      </c>
+      <c r="J384" t="s">
+        <v>1599</v>
+      </c>
+      <c r="K384" t="s">
+        <v>1599</v>
+      </c>
+      <c r="L384" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="385" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A385" s="11" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B385" s="14" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C385" s="8" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D385" s="8" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E385" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F385" s="8" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G385" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H385" t="s">
+        <v>1597</v>
+      </c>
+      <c r="I385" t="s">
+        <v>1597</v>
+      </c>
+      <c r="J385" s="8" t="s">
+        <v>1598</v>
+      </c>
+      <c r="K385" s="8" t="s">
+        <v>1598</v>
+      </c>
+      <c r="L385" s="8" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="386" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A386" s="11" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B386" s="14" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D386" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E386" s="9" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F386" s="9" t="s">
+        <v>1597</v>
+      </c>
+      <c r="G386" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H386" t="s">
+        <v>1597</v>
+      </c>
+      <c r="I386" t="s">
+        <v>1597</v>
+      </c>
+      <c r="J386" t="s">
+        <v>1599</v>
+      </c>
+      <c r="K386" t="s">
+        <v>1599</v>
+      </c>
+      <c r="L386" t="s">
+        <v>1599</v>
+      </c>
+      <c r="V386" s="7"/>
+    </row>
+    <row r="387" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A387" s="11" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B387" s="14" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C387" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D387" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E387" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F387" t="s">
+        <v>1597</v>
+      </c>
+      <c r="G387" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H387" t="s">
+        <v>1597</v>
+      </c>
+      <c r="I387" t="s">
+        <v>1597</v>
+      </c>
+      <c r="J387" t="s">
+        <v>1599</v>
+      </c>
+      <c r="K387" t="s">
+        <v>1599</v>
+      </c>
+      <c r="L387" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="388" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A388" s="11" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B388" s="14" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C388" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D388" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E388" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F388" t="s">
+        <v>1597</v>
+      </c>
+      <c r="G388" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H388" t="s">
+        <v>1597</v>
+      </c>
+      <c r="I388" t="s">
+        <v>1597</v>
+      </c>
+      <c r="J388" t="s">
+        <v>1599</v>
+      </c>
+      <c r="K388" t="s">
+        <v>1599</v>
+      </c>
+      <c r="L388" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="389" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A389" s="11" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B389" s="14" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C389" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D389" s="8" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E389" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F389" s="8" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G389" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H389" t="s">
+        <v>1597</v>
+      </c>
+      <c r="I389" s="8" t="s">
+        <v>1596</v>
+      </c>
+      <c r="J389" s="8" t="s">
+        <v>1598</v>
+      </c>
+      <c r="K389" s="8" t="s">
+        <v>1598</v>
+      </c>
+      <c r="L389" s="8" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="390" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A390" s="11" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B390" s="14" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C390" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D390" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E390" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F390" t="s">
+        <v>1597</v>
+      </c>
+      <c r="G390" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H390" t="s">
+        <v>1597</v>
+      </c>
+      <c r="I390" t="s">
+        <v>1597</v>
+      </c>
+      <c r="J390" t="s">
+        <v>1599</v>
+      </c>
+      <c r="K390" t="s">
+        <v>1599</v>
+      </c>
+      <c r="L390" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="391" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A391" s="11" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B391" s="14" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C391" s="8" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D391" s="8" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E391" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F391" s="8" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G391" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H391" t="s">
+        <v>1597</v>
+      </c>
+      <c r="I391" t="s">
+        <v>1597</v>
+      </c>
+      <c r="J391" s="8" t="s">
+        <v>1598</v>
+      </c>
+      <c r="K391" s="8" t="s">
+        <v>1598</v>
+      </c>
+      <c r="L391" s="8" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="392" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A392" s="11" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B392" s="14" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C392" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D392" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E392" s="9" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F392" s="10" t="s">
+        <v>1597</v>
+      </c>
+      <c r="G392" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H392" t="s">
+        <v>1597</v>
+      </c>
+      <c r="I392" t="s">
+        <v>1597</v>
+      </c>
+      <c r="J392" t="s">
+        <v>1599</v>
+      </c>
+      <c r="K392" t="s">
+        <v>1599</v>
+      </c>
+      <c r="L392" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="393" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A393" s="11" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B393" s="14" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C393" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D393" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E393" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F393" t="s">
+        <v>1597</v>
+      </c>
+      <c r="G393" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H393" t="s">
+        <v>1597</v>
+      </c>
+      <c r="I393" t="s">
+        <v>1597</v>
+      </c>
+      <c r="J393" t="s">
+        <v>1599</v>
+      </c>
+      <c r="K393" t="s">
+        <v>1599</v>
+      </c>
+      <c r="L393" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="394" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A394" s="11" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B394" s="14" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C394" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D394" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E394" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F394" t="s">
+        <v>1597</v>
+      </c>
+      <c r="G394" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H394" t="s">
+        <v>1597</v>
+      </c>
+      <c r="I394" t="s">
+        <v>1597</v>
+      </c>
+      <c r="J394" t="s">
+        <v>1599</v>
+      </c>
+      <c r="K394" t="s">
+        <v>1599</v>
+      </c>
+      <c r="L394" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="395" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A395" s="11" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B395" s="14" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C395" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D395" s="8" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E395" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F395" s="8" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G395" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H395" t="s">
+        <v>1597</v>
+      </c>
+      <c r="I395" s="8" t="s">
+        <v>1596</v>
+      </c>
+      <c r="J395" s="8" t="s">
+        <v>1598</v>
+      </c>
+      <c r="K395" s="8" t="s">
+        <v>1598</v>
+      </c>
+      <c r="L395" s="8" t="s">
+        <v>1598</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Output/Ouptut_menu.xlsx
+++ b/Output/Ouptut_menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophi\Antarctic-Food-Optimisation\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CD948C-5E87-42DB-AEC5-179FB91C52D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBB434E-D595-417E-A636-0B411C735DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7327" uniqueCount="1619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7136" uniqueCount="1589">
   <si>
     <t>date</t>
   </si>
@@ -4799,103 +4799,13 @@
   </si>
   <si>
     <t>Average</t>
-  </si>
-  <si>
-    <t>Gluten</t>
-  </si>
-  <si>
-    <t>Meat</t>
-  </si>
-  <si>
-    <t>Milk</t>
-  </si>
-  <si>
-    <t>Egg</t>
-  </si>
-  <si>
-    <t>Nuts</t>
-  </si>
-  <si>
-    <t>Seeds</t>
-  </si>
-  <si>
-    <t>Added sugar</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>unsuitable</t>
-  </si>
-  <si>
-    <t>suitable</t>
-  </si>
-  <si>
-    <t>person</t>
-  </si>
-  <si>
-    <t>A - vegan</t>
-  </si>
-  <si>
-    <t>B - coeliac</t>
-  </si>
-  <si>
-    <t>C - sensitive to all</t>
-  </si>
-  <si>
-    <t>breakfast</t>
-  </si>
-  <si>
-    <t>lunch</t>
-  </si>
-  <si>
-    <t>lunch side</t>
-  </si>
-  <si>
-    <t>dessert</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>tea side</t>
-  </si>
-  <si>
-    <t>fullEnglish</t>
-  </si>
-  <si>
-    <t>veganPorridge</t>
-  </si>
-  <si>
-    <t>yoghurt</t>
-  </si>
-  <si>
-    <t>mushroomSoup</t>
-  </si>
-  <si>
-    <t>pepperoniPizza</t>
-  </si>
-  <si>
-    <t>vegChowMein</t>
-  </si>
-  <si>
-    <t>bakedPotato</t>
-  </si>
-  <si>
-    <t>roastPotatoes</t>
-  </si>
-  <si>
-    <t>berryCrumble</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4922,37 +4832,13 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -4982,7 +4868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5001,16 +4887,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5314,20 +5195,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO395"/>
+  <dimension ref="A1:AX386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A371" workbookViewId="0">
-      <selection activeCell="N393" sqref="N393"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AL10" sqref="AL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="3" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="12" width="15.44140625" customWidth="1"/>
@@ -5357,9 +5239,17 @@
     <col min="39" max="39" width="23.44140625" customWidth="1"/>
     <col min="40" max="40" width="13.77734375" customWidth="1"/>
     <col min="41" max="41" width="14.44140625" customWidth="1"/>
+    <col min="43" max="43" width="38.109375" customWidth="1"/>
+    <col min="44" max="44" width="16.33203125" customWidth="1"/>
+    <col min="45" max="45" width="17.88671875" customWidth="1"/>
+    <col min="46" max="46" width="21.5546875" customWidth="1"/>
+    <col min="47" max="47" width="16" customWidth="1"/>
+    <col min="48" max="48" width="17.77734375" customWidth="1"/>
+    <col min="49" max="49" width="14.88671875" customWidth="1"/>
+    <col min="50" max="50" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5480,8 +5370,9 @@
       <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ1" s="8"/>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5605,8 +5496,16 @@
       <c r="AO2" s="4">
         <v>714.75</v>
       </c>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5730,8 +5629,9 @@
       <c r="AO3" s="4">
         <v>1727.75</v>
       </c>
+      <c r="AQ3" s="9"/>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5855,8 +5755,9 @@
       <c r="AO4" s="4">
         <v>1310.75</v>
       </c>
+      <c r="AQ4" s="9"/>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5980,8 +5881,9 @@
       <c r="AO5" s="4">
         <v>1042.75</v>
       </c>
+      <c r="AQ5" s="9"/>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6105,8 +6007,9 @@
       <c r="AO6" s="4">
         <v>1450.75</v>
       </c>
+      <c r="AQ6" s="9"/>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6230,8 +6133,9 @@
       <c r="AO7" s="4">
         <v>2212.75</v>
       </c>
+      <c r="AQ7" s="9"/>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6355,8 +6259,9 @@
       <c r="AO8" s="4">
         <v>1805.75</v>
       </c>
+      <c r="AQ8" s="9"/>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6480,8 +6385,9 @@
       <c r="AO9" s="4">
         <v>538.75</v>
       </c>
+      <c r="AQ9" s="9"/>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6605,8 +6511,9 @@
       <c r="AO10" s="4">
         <v>1784.75</v>
       </c>
+      <c r="AQ10" s="9"/>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6730,8 +6637,9 @@
       <c r="AO11" s="4">
         <v>1421.75</v>
       </c>
+      <c r="AQ11" s="9"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6855,8 +6763,9 @@
       <c r="AO12" s="4">
         <v>1150.25</v>
       </c>
+      <c r="AQ12" s="9"/>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6980,8 +6889,9 @@
       <c r="AO13" s="4">
         <v>1242.25</v>
       </c>
+      <c r="AQ13" s="9"/>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -7105,8 +7015,9 @@
       <c r="AO14" s="4">
         <v>2194.25</v>
       </c>
+      <c r="AQ14" s="9"/>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -7230,8 +7141,9 @@
       <c r="AO15" s="4">
         <v>1820.25</v>
       </c>
+      <c r="AQ15" s="9"/>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -7355,8 +7267,9 @@
       <c r="AO16" s="4">
         <v>920.75</v>
       </c>
+      <c r="AQ16" s="9"/>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -7480,8 +7393,9 @@
       <c r="AO17" s="4">
         <v>2144.75</v>
       </c>
+      <c r="AQ17" s="9"/>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -7605,8 +7519,9 @@
       <c r="AO18" s="4">
         <v>1952.25</v>
       </c>
+      <c r="AQ18" s="9"/>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -7730,8 +7645,9 @@
       <c r="AO19" s="4">
         <v>1398.25</v>
       </c>
+      <c r="AQ19" s="9"/>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -7855,8 +7771,16 @@
       <c r="AO20" s="4">
         <v>1951</v>
       </c>
+      <c r="AQ20" s="8"/>
+      <c r="AR20" s="4"/>
+      <c r="AS20" s="4"/>
+      <c r="AT20" s="4"/>
+      <c r="AU20" s="4"/>
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="4"/>
+      <c r="AX20" s="4"/>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -7980,8 +7904,16 @@
       <c r="AO21" s="4">
         <v>3108.5</v>
       </c>
+      <c r="AQ21" s="8"/>
+      <c r="AR21" s="4"/>
+      <c r="AS21" s="4"/>
+      <c r="AT21" s="4"/>
+      <c r="AU21" s="4"/>
+      <c r="AV21" s="4"/>
+      <c r="AW21" s="4"/>
+      <c r="AX21" s="4"/>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -8105,8 +8037,16 @@
       <c r="AO22" s="4">
         <v>2526</v>
       </c>
+      <c r="AQ22" s="8"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="4"/>
+      <c r="AU22" s="4"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -8230,8 +8170,16 @@
       <c r="AO23" s="4">
         <v>677.5</v>
       </c>
+      <c r="AQ23" s="8"/>
+      <c r="AR23" s="4"/>
+      <c r="AS23" s="4"/>
+      <c r="AT23" s="4"/>
+      <c r="AU23" s="4"/>
+      <c r="AV23" s="4"/>
+      <c r="AW23" s="4"/>
+      <c r="AX23" s="4"/>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -8355,8 +8303,16 @@
       <c r="AO24" s="4">
         <v>2644.75</v>
       </c>
+      <c r="AQ24" s="8"/>
+      <c r="AR24" s="4"/>
+      <c r="AS24" s="4"/>
+      <c r="AT24" s="4"/>
+      <c r="AU24" s="4"/>
+      <c r="AV24" s="4"/>
+      <c r="AW24" s="4"/>
+      <c r="AX24" s="4"/>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -8480,8 +8436,16 @@
       <c r="AO25" s="4">
         <v>2088.25</v>
       </c>
+      <c r="AQ25" s="8"/>
+      <c r="AR25" s="4"/>
+      <c r="AS25" s="4"/>
+      <c r="AT25" s="4"/>
+      <c r="AU25" s="4"/>
+      <c r="AV25" s="4"/>
+      <c r="AW25" s="4"/>
+      <c r="AX25" s="4"/>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -8605,8 +8569,16 @@
       <c r="AO26" s="4">
         <v>1422</v>
       </c>
+      <c r="AQ26" s="8"/>
+      <c r="AR26" s="4"/>
+      <c r="AS26" s="4"/>
+      <c r="AT26" s="4"/>
+      <c r="AU26" s="4"/>
+      <c r="AV26" s="4"/>
+      <c r="AW26" s="4"/>
+      <c r="AX26" s="4"/>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -8730,8 +8702,16 @@
       <c r="AO27" s="4">
         <v>1949</v>
       </c>
+      <c r="AQ27" s="8"/>
+      <c r="AR27" s="4"/>
+      <c r="AS27" s="4"/>
+      <c r="AT27" s="4"/>
+      <c r="AU27" s="4"/>
+      <c r="AV27" s="4"/>
+      <c r="AW27" s="4"/>
+      <c r="AX27" s="4"/>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -8855,8 +8835,16 @@
       <c r="AO28" s="4">
         <v>2568</v>
       </c>
+      <c r="AQ28" s="8"/>
+      <c r="AR28" s="4"/>
+      <c r="AS28" s="4"/>
+      <c r="AT28" s="4"/>
+      <c r="AU28" s="4"/>
+      <c r="AV28" s="4"/>
+      <c r="AW28" s="4"/>
+      <c r="AX28" s="4"/>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -8980,8 +8968,16 @@
       <c r="AO29" s="4">
         <v>2653.5</v>
       </c>
+      <c r="AQ29" s="8"/>
+      <c r="AR29" s="4"/>
+      <c r="AS29" s="4"/>
+      <c r="AT29" s="4"/>
+      <c r="AU29" s="4"/>
+      <c r="AV29" s="4"/>
+      <c r="AW29" s="4"/>
+      <c r="AX29" s="4"/>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -9106,7 +9102,7 @@
         <v>1004.5</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -9231,7 +9227,7 @@
         <v>3251</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -51945,613 +51941,8 @@
         <v>3847.6527027027028</v>
       </c>
     </row>
-    <row r="379" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="K379" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="380" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="C380" s="12" t="s">
-        <v>1590</v>
-      </c>
-      <c r="D380" s="12" t="s">
-        <v>1591</v>
-      </c>
-      <c r="E380" s="12" t="s">
-        <v>1592</v>
-      </c>
-      <c r="F380" s="12" t="s">
-        <v>1589</v>
-      </c>
-      <c r="G380" s="12" t="s">
-        <v>1593</v>
-      </c>
-      <c r="H380" s="12" t="s">
-        <v>1594</v>
-      </c>
-      <c r="I380" s="12" t="s">
-        <v>1595</v>
-      </c>
-      <c r="J380" s="13" t="s">
-        <v>1601</v>
-      </c>
-      <c r="K380" s="13" t="s">
-        <v>1602</v>
-      </c>
-      <c r="L380" s="13" t="s">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="381" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A381" s="11" t="s">
-        <v>1604</v>
-      </c>
-      <c r="B381" s="14" t="s">
-        <v>1610</v>
-      </c>
-      <c r="C381" s="8" t="s">
-        <v>1596</v>
-      </c>
-      <c r="D381" t="s">
-        <v>1597</v>
-      </c>
-      <c r="E381" s="8" t="s">
-        <v>1596</v>
-      </c>
-      <c r="F381" t="s">
-        <v>1597</v>
-      </c>
-      <c r="G381" t="s">
-        <v>1597</v>
-      </c>
-      <c r="H381" t="s">
-        <v>1597</v>
-      </c>
-      <c r="I381" t="s">
-        <v>1597</v>
-      </c>
-      <c r="J381" s="8" t="s">
-        <v>1598</v>
-      </c>
-      <c r="K381" t="s">
-        <v>1599</v>
-      </c>
-      <c r="L381" s="8" t="s">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="382" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A382" s="11" t="s">
-        <v>1604</v>
-      </c>
-      <c r="B382" s="14" t="s">
-        <v>1611</v>
-      </c>
-      <c r="C382" t="s">
-        <v>1597</v>
-      </c>
-      <c r="D382" t="s">
-        <v>1597</v>
-      </c>
-      <c r="E382" t="s">
-        <v>1597</v>
-      </c>
-      <c r="F382" t="s">
-        <v>1597</v>
-      </c>
-      <c r="G382" t="s">
-        <v>1597</v>
-      </c>
-      <c r="H382" t="s">
-        <v>1597</v>
-      </c>
-      <c r="I382" t="s">
-        <v>1597</v>
-      </c>
-      <c r="J382" t="s">
-        <v>1599</v>
-      </c>
-      <c r="K382" t="s">
-        <v>1599</v>
-      </c>
-      <c r="L382" t="s">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="383" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A383" s="11" t="s">
-        <v>1604</v>
-      </c>
-      <c r="B383" s="14" t="s">
-        <v>1612</v>
-      </c>
-      <c r="C383" t="s">
-        <v>1597</v>
-      </c>
-      <c r="D383" s="8" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E383" t="s">
-        <v>1597</v>
-      </c>
-      <c r="F383" t="s">
-        <v>1597</v>
-      </c>
-      <c r="G383" t="s">
-        <v>1597</v>
-      </c>
-      <c r="H383" t="s">
-        <v>1597</v>
-      </c>
-      <c r="I383" t="s">
-        <v>1597</v>
-      </c>
-      <c r="J383" s="8" t="s">
-        <v>1598</v>
-      </c>
-      <c r="K383" t="s">
-        <v>1599</v>
-      </c>
-      <c r="L383" s="8" t="s">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="384" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A384" s="11" t="s">
-        <v>1605</v>
-      </c>
-      <c r="B384" s="14" t="s">
-        <v>1613</v>
-      </c>
-      <c r="C384" t="s">
-        <v>1597</v>
-      </c>
-      <c r="D384" t="s">
-        <v>1597</v>
-      </c>
-      <c r="E384" t="s">
-        <v>1597</v>
-      </c>
-      <c r="F384" t="s">
-        <v>1597</v>
-      </c>
-      <c r="G384" t="s">
-        <v>1597</v>
-      </c>
-      <c r="H384" t="s">
-        <v>1597</v>
-      </c>
-      <c r="I384" t="s">
-        <v>1597</v>
-      </c>
-      <c r="J384" t="s">
-        <v>1599</v>
-      </c>
-      <c r="K384" t="s">
-        <v>1599</v>
-      </c>
-      <c r="L384" t="s">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="385" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A385" s="11" t="s">
-        <v>1605</v>
-      </c>
-      <c r="B385" s="14" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C385" s="8" t="s">
-        <v>1596</v>
-      </c>
-      <c r="D385" s="8" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E385" t="s">
-        <v>1597</v>
-      </c>
-      <c r="F385" s="8" t="s">
-        <v>1596</v>
-      </c>
-      <c r="G385" t="s">
-        <v>1597</v>
-      </c>
-      <c r="H385" t="s">
-        <v>1597</v>
-      </c>
-      <c r="I385" t="s">
-        <v>1597</v>
-      </c>
-      <c r="J385" s="8" t="s">
-        <v>1598</v>
-      </c>
-      <c r="K385" s="8" t="s">
-        <v>1598</v>
-      </c>
-      <c r="L385" s="8" t="s">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="386" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A386" s="11" t="s">
-        <v>1605</v>
-      </c>
-      <c r="B386" s="14" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C386" t="s">
-        <v>1597</v>
-      </c>
-      <c r="D386" t="s">
-        <v>1597</v>
-      </c>
-      <c r="E386" s="9" t="s">
-        <v>1597</v>
-      </c>
-      <c r="F386" s="9" t="s">
-        <v>1597</v>
-      </c>
-      <c r="G386" t="s">
-        <v>1597</v>
-      </c>
-      <c r="H386" t="s">
-        <v>1597</v>
-      </c>
-      <c r="I386" t="s">
-        <v>1597</v>
-      </c>
-      <c r="J386" t="s">
-        <v>1599</v>
-      </c>
-      <c r="K386" t="s">
-        <v>1599</v>
-      </c>
-      <c r="L386" t="s">
-        <v>1599</v>
-      </c>
+    <row r="386" spans="22:22" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="V386" s="7"/>
-    </row>
-    <row r="387" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A387" s="11" t="s">
-        <v>1606</v>
-      </c>
-      <c r="B387" s="14" t="s">
-        <v>1616</v>
-      </c>
-      <c r="C387" t="s">
-        <v>1597</v>
-      </c>
-      <c r="D387" t="s">
-        <v>1597</v>
-      </c>
-      <c r="E387" t="s">
-        <v>1597</v>
-      </c>
-      <c r="F387" t="s">
-        <v>1597</v>
-      </c>
-      <c r="G387" t="s">
-        <v>1597</v>
-      </c>
-      <c r="H387" t="s">
-        <v>1597</v>
-      </c>
-      <c r="I387" t="s">
-        <v>1597</v>
-      </c>
-      <c r="J387" t="s">
-        <v>1599</v>
-      </c>
-      <c r="K387" t="s">
-        <v>1599</v>
-      </c>
-      <c r="L387" t="s">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="388" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A388" s="11" t="s">
-        <v>1606</v>
-      </c>
-      <c r="B388" s="14" t="s">
-        <v>1617</v>
-      </c>
-      <c r="C388" t="s">
-        <v>1597</v>
-      </c>
-      <c r="D388" t="s">
-        <v>1597</v>
-      </c>
-      <c r="E388" t="s">
-        <v>1597</v>
-      </c>
-      <c r="F388" t="s">
-        <v>1597</v>
-      </c>
-      <c r="G388" t="s">
-        <v>1597</v>
-      </c>
-      <c r="H388" t="s">
-        <v>1597</v>
-      </c>
-      <c r="I388" t="s">
-        <v>1597</v>
-      </c>
-      <c r="J388" t="s">
-        <v>1599</v>
-      </c>
-      <c r="K388" t="s">
-        <v>1599</v>
-      </c>
-      <c r="L388" t="s">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="389" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A389" s="11" t="s">
-        <v>1607</v>
-      </c>
-      <c r="B389" s="14" t="s">
-        <v>1618</v>
-      </c>
-      <c r="C389" t="s">
-        <v>1597</v>
-      </c>
-      <c r="D389" s="8" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E389" t="s">
-        <v>1597</v>
-      </c>
-      <c r="F389" s="8" t="s">
-        <v>1596</v>
-      </c>
-      <c r="G389" t="s">
-        <v>1597</v>
-      </c>
-      <c r="H389" t="s">
-        <v>1597</v>
-      </c>
-      <c r="I389" s="8" t="s">
-        <v>1596</v>
-      </c>
-      <c r="J389" s="8" t="s">
-        <v>1598</v>
-      </c>
-      <c r="K389" s="8" t="s">
-        <v>1598</v>
-      </c>
-      <c r="L389" s="8" t="s">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="390" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A390" s="11" t="s">
-        <v>1608</v>
-      </c>
-      <c r="B390" s="14" t="s">
-        <v>1613</v>
-      </c>
-      <c r="C390" t="s">
-        <v>1597</v>
-      </c>
-      <c r="D390" t="s">
-        <v>1597</v>
-      </c>
-      <c r="E390" t="s">
-        <v>1597</v>
-      </c>
-      <c r="F390" t="s">
-        <v>1597</v>
-      </c>
-      <c r="G390" t="s">
-        <v>1597</v>
-      </c>
-      <c r="H390" t="s">
-        <v>1597</v>
-      </c>
-      <c r="I390" t="s">
-        <v>1597</v>
-      </c>
-      <c r="J390" t="s">
-        <v>1599</v>
-      </c>
-      <c r="K390" t="s">
-        <v>1599</v>
-      </c>
-      <c r="L390" t="s">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="391" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A391" s="11" t="s">
-        <v>1608</v>
-      </c>
-      <c r="B391" s="14" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C391" s="8" t="s">
-        <v>1596</v>
-      </c>
-      <c r="D391" s="8" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E391" t="s">
-        <v>1597</v>
-      </c>
-      <c r="F391" s="8" t="s">
-        <v>1596</v>
-      </c>
-      <c r="G391" t="s">
-        <v>1597</v>
-      </c>
-      <c r="H391" t="s">
-        <v>1597</v>
-      </c>
-      <c r="I391" t="s">
-        <v>1597</v>
-      </c>
-      <c r="J391" s="8" t="s">
-        <v>1598</v>
-      </c>
-      <c r="K391" s="8" t="s">
-        <v>1598</v>
-      </c>
-      <c r="L391" s="8" t="s">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="392" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A392" s="11" t="s">
-        <v>1608</v>
-      </c>
-      <c r="B392" s="14" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C392" t="s">
-        <v>1597</v>
-      </c>
-      <c r="D392" t="s">
-        <v>1597</v>
-      </c>
-      <c r="E392" s="9" t="s">
-        <v>1597</v>
-      </c>
-      <c r="F392" s="10" t="s">
-        <v>1597</v>
-      </c>
-      <c r="G392" t="s">
-        <v>1597</v>
-      </c>
-      <c r="H392" t="s">
-        <v>1597</v>
-      </c>
-      <c r="I392" t="s">
-        <v>1597</v>
-      </c>
-      <c r="J392" t="s">
-        <v>1599</v>
-      </c>
-      <c r="K392" t="s">
-        <v>1599</v>
-      </c>
-      <c r="L392" t="s">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="393" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A393" s="11" t="s">
-        <v>1609</v>
-      </c>
-      <c r="B393" s="14" t="s">
-        <v>1616</v>
-      </c>
-      <c r="C393" t="s">
-        <v>1597</v>
-      </c>
-      <c r="D393" t="s">
-        <v>1597</v>
-      </c>
-      <c r="E393" t="s">
-        <v>1597</v>
-      </c>
-      <c r="F393" t="s">
-        <v>1597</v>
-      </c>
-      <c r="G393" t="s">
-        <v>1597</v>
-      </c>
-      <c r="H393" t="s">
-        <v>1597</v>
-      </c>
-      <c r="I393" t="s">
-        <v>1597</v>
-      </c>
-      <c r="J393" t="s">
-        <v>1599</v>
-      </c>
-      <c r="K393" t="s">
-        <v>1599</v>
-      </c>
-      <c r="L393" t="s">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="394" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A394" s="11" t="s">
-        <v>1609</v>
-      </c>
-      <c r="B394" s="14" t="s">
-        <v>1617</v>
-      </c>
-      <c r="C394" t="s">
-        <v>1597</v>
-      </c>
-      <c r="D394" t="s">
-        <v>1597</v>
-      </c>
-      <c r="E394" t="s">
-        <v>1597</v>
-      </c>
-      <c r="F394" t="s">
-        <v>1597</v>
-      </c>
-      <c r="G394" t="s">
-        <v>1597</v>
-      </c>
-      <c r="H394" t="s">
-        <v>1597</v>
-      </c>
-      <c r="I394" t="s">
-        <v>1597</v>
-      </c>
-      <c r="J394" t="s">
-        <v>1599</v>
-      </c>
-      <c r="K394" t="s">
-        <v>1599</v>
-      </c>
-      <c r="L394" t="s">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="395" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A395" s="11" t="s">
-        <v>1607</v>
-      </c>
-      <c r="B395" s="14" t="s">
-        <v>1618</v>
-      </c>
-      <c r="C395" t="s">
-        <v>1597</v>
-      </c>
-      <c r="D395" s="8" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E395" t="s">
-        <v>1597</v>
-      </c>
-      <c r="F395" s="8" t="s">
-        <v>1596</v>
-      </c>
-      <c r="G395" t="s">
-        <v>1597</v>
-      </c>
-      <c r="H395" t="s">
-        <v>1597</v>
-      </c>
-      <c r="I395" s="8" t="s">
-        <v>1596</v>
-      </c>
-      <c r="J395" s="8" t="s">
-        <v>1598</v>
-      </c>
-      <c r="K395" s="8" t="s">
-        <v>1598</v>
-      </c>
-      <c r="L395" s="8" t="s">
-        <v>1598</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
